--- a/Contoh algoritma.xlsx
+++ b/Contoh algoritma.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE31689D-8056-48EF-B7A7-0C428F092624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872CCEB3-7378-45E3-A828-64F4BD2351DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NSM" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="KMP" sheetId="2" r:id="rId3"/>
+    <sheet name="KMP Revisi" sheetId="5" r:id="rId4"/>
+    <sheet name="KMP1" sheetId="3" r:id="rId5"/>
+    <sheet name="KMP BF fix" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$V$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +43,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CAE4AF33-AB16-49B9-B422-3306B9329923}</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{CAE4AF33-AB16-49B9-B422-3306B9329923}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Skip aja soalnya tidak ada pattern dengan index -1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="64">
   <si>
     <t>I</t>
   </si>
@@ -94,12 +117,150 @@
   <si>
     <t>Tidak dicocokan</t>
   </si>
+  <si>
+    <t>Contoh KMP Border Function</t>
+  </si>
+  <si>
+    <t>abababaca</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>P[j]</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>j = 0 -&gt; k = (N/A) -&gt; b(k) = -</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>aba</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b[k]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 Buat border function</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>abac</t>
+  </si>
+  <si>
+    <t>bac</t>
+  </si>
+  <si>
+    <t>abaca</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>aca</t>
+  </si>
+  <si>
+    <t>baca</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j = 0 -&gt; k = (N/A) -&gt; b(k) =</t>
+  </si>
+  <si>
+    <t>b(k) =</t>
+  </si>
+  <si>
+    <t>b(k)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>sufix</t>
+  </si>
+  <si>
+    <t>Kasus 3</t>
+  </si>
+  <si>
+    <t>cab</t>
+  </si>
+  <si>
+    <t>acab</t>
+  </si>
+  <si>
+    <t>caba</t>
+  </si>
+  <si>
+    <t>acaba</t>
+  </si>
+  <si>
+    <t>cabac</t>
+  </si>
+  <si>
+    <t>acabac</t>
+  </si>
+  <si>
+    <t>cabaca</t>
+  </si>
+  <si>
+    <t>PLANINGANDANALYSIS</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>N=Panjang teks | M = Panjang pattern</t>
+  </si>
+  <si>
+    <t>T[j]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +297,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +375,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,9 +572,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,19 +588,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,6 +789,340 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18586</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381753</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>126284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887789EB-5798-CD2A-AEFB-DC2FF998C55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2467208" y="1175579"/>
+          <a:ext cx="2533008" cy="284205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>92925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139377</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CF349F-7737-C684-9AD8-8043C10F7115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2541547" y="1524000"/>
+          <a:ext cx="1770245" cy="284400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353121</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>435317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5108B31C-A951-09FD-1829-E049F632D2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7606060" y="278508"/>
+          <a:ext cx="5560233" cy="2031154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>92925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139377</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8500CEAC-78FE-42BF-A3B7-458A912FF6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540850" y="1524000"/>
+          <a:ext cx="1770477" cy="284400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353121</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>435317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4697505E-09A5-494F-A529-A1676CCF07F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8411271" y="278508"/>
+          <a:ext cx="5568596" cy="2031154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730112</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>454661</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1CC314-0AD2-7F4C-8DB6-EF69045D795A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3587612" y="439836"/>
+          <a:ext cx="9357223" cy="5113347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>579056</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6B7166-A0A3-85AB-7C27-8C5E39B092EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8733693" y="2344615"/>
+          <a:ext cx="6887536" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ISEP LUTPI NUR" id="{C7E4764C-0268-48C7-8E6F-A779754361C0}" userId="S::iseplutpi@4fx3z1.onmicrosoft.com::1d5e11f7-fc0f-4e19-b41b-eff55c73ecbc" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,12 +1420,944 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C4" dT="2023-05-19T17:33:42.35" personId="{C7E4764C-0268-48C7-8E6F-A779754361C0}" id="{CAE4AF33-AB16-49B9-B422-3306B9329923}">
+    <text>Skip aja soalnya tidak ada pattern dengan index -1</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420A0A5-0426-480F-AD14-274674383F47}">
+  <dimension ref="B1:U35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="21" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L4" s="43">
+        <v>0</v>
+      </c>
+      <c r="M4" s="43">
+        <v>1</v>
+      </c>
+      <c r="N4" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"Langkah "&amp;B5</f>
+        <v>Langkah 1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="43">
+        <v>0</v>
+      </c>
+      <c r="E6" s="43">
+        <v>1</v>
+      </c>
+      <c r="F6" s="43">
+        <v>2</v>
+      </c>
+      <c r="G6" s="43">
+        <v>3</v>
+      </c>
+      <c r="H6" s="43">
+        <v>4</v>
+      </c>
+      <c r="I6" s="43">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43">
+        <v>6</v>
+      </c>
+      <c r="K6" s="43">
+        <v>7</v>
+      </c>
+      <c r="L6" s="43">
+        <v>8</v>
+      </c>
+      <c r="M6" s="43">
+        <v>9</v>
+      </c>
+      <c r="N6" s="43">
+        <v>10</v>
+      </c>
+      <c r="O6" s="43">
+        <v>11</v>
+      </c>
+      <c r="P6" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>13</v>
+      </c>
+      <c r="R6" s="43">
+        <v>14</v>
+      </c>
+      <c r="S6" s="43">
+        <v>15</v>
+      </c>
+      <c r="T6" s="43">
+        <v>16</v>
+      </c>
+      <c r="U6" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="43">
+        <v>0</v>
+      </c>
+      <c r="E10" s="43">
+        <v>1</v>
+      </c>
+      <c r="F10" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="43">
+        <v>0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
+        <v>2</v>
+      </c>
+      <c r="G11" s="43">
+        <v>3</v>
+      </c>
+      <c r="H11" s="43">
+        <v>4</v>
+      </c>
+      <c r="I11" s="43">
+        <v>5</v>
+      </c>
+      <c r="J11" s="43">
+        <v>6</v>
+      </c>
+      <c r="K11" s="43">
+        <v>7</v>
+      </c>
+      <c r="L11" s="43">
+        <v>8</v>
+      </c>
+      <c r="M11" s="43">
+        <v>9</v>
+      </c>
+      <c r="N11" s="43">
+        <v>10</v>
+      </c>
+      <c r="O11" s="43">
+        <v>11</v>
+      </c>
+      <c r="P11" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>13</v>
+      </c>
+      <c r="R11" s="43">
+        <v>14</v>
+      </c>
+      <c r="S11" s="43">
+        <v>15</v>
+      </c>
+      <c r="T11" s="43">
+        <v>16</v>
+      </c>
+      <c r="U11" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2</v>
+      </c>
+      <c r="G16" s="43">
+        <v>3</v>
+      </c>
+      <c r="H16" s="43">
+        <v>4</v>
+      </c>
+      <c r="I16" s="43">
+        <v>5</v>
+      </c>
+      <c r="J16" s="43">
+        <v>6</v>
+      </c>
+      <c r="K16" s="43">
+        <v>7</v>
+      </c>
+      <c r="L16" s="43">
+        <v>8</v>
+      </c>
+      <c r="M16" s="43">
+        <v>9</v>
+      </c>
+      <c r="N16" s="43">
+        <v>10</v>
+      </c>
+      <c r="O16" s="43">
+        <v>11</v>
+      </c>
+      <c r="P16" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>13</v>
+      </c>
+      <c r="R16" s="43">
+        <v>14</v>
+      </c>
+      <c r="S16" s="43">
+        <v>15</v>
+      </c>
+      <c r="T16" s="43">
+        <v>16</v>
+      </c>
+      <c r="U16" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F18" s="44">
+        <v>2</v>
+      </c>
+      <c r="G18" s="44">
+        <v>3</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F20" s="43">
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <v>1</v>
+      </c>
+      <c r="H20" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="43">
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
+        <v>1</v>
+      </c>
+      <c r="F21" s="43">
+        <v>2</v>
+      </c>
+      <c r="G21" s="43">
+        <v>3</v>
+      </c>
+      <c r="H21" s="43">
+        <v>4</v>
+      </c>
+      <c r="I21" s="43">
+        <v>5</v>
+      </c>
+      <c r="J21" s="43">
+        <v>6</v>
+      </c>
+      <c r="K21" s="43">
+        <v>7</v>
+      </c>
+      <c r="L21" s="43">
+        <v>8</v>
+      </c>
+      <c r="M21" s="43">
+        <v>9</v>
+      </c>
+      <c r="N21" s="43">
+        <v>10</v>
+      </c>
+      <c r="O21" s="43">
+        <v>11</v>
+      </c>
+      <c r="P21" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>13</v>
+      </c>
+      <c r="R21" s="43">
+        <v>14</v>
+      </c>
+      <c r="S21" s="43">
+        <v>15</v>
+      </c>
+      <c r="T21" s="43">
+        <v>16</v>
+      </c>
+      <c r="U21" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="I23" s="44">
+        <v>5</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="I24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="I25" s="43">
+        <v>0</v>
+      </c>
+      <c r="J25" s="43">
+        <v>1</v>
+      </c>
+      <c r="K25" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>1</v>
+      </c>
+      <c r="F26" s="43">
+        <v>2</v>
+      </c>
+      <c r="G26" s="43">
+        <v>3</v>
+      </c>
+      <c r="H26" s="43">
+        <v>4</v>
+      </c>
+      <c r="I26" s="43">
+        <v>5</v>
+      </c>
+      <c r="J26" s="43">
+        <v>6</v>
+      </c>
+      <c r="K26" s="43">
+        <v>7</v>
+      </c>
+      <c r="L26" s="43">
+        <v>8</v>
+      </c>
+      <c r="M26" s="43">
+        <v>9</v>
+      </c>
+      <c r="N26" s="43">
+        <v>10</v>
+      </c>
+      <c r="O26" s="43">
+        <v>11</v>
+      </c>
+      <c r="P26" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>13</v>
+      </c>
+      <c r="R26" s="43">
+        <v>14</v>
+      </c>
+      <c r="S26" s="43">
+        <v>15</v>
+      </c>
+      <c r="T26" s="43">
+        <v>16</v>
+      </c>
+      <c r="U26" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="J28" s="44">
+        <v>6</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="J29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="J30" s="43">
+        <v>0</v>
+      </c>
+      <c r="K30" s="43">
+        <v>1</v>
+      </c>
+      <c r="L30" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="43">
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <v>1</v>
+      </c>
+      <c r="F31" s="43">
+        <v>2</v>
+      </c>
+      <c r="G31" s="43">
+        <v>3</v>
+      </c>
+      <c r="H31" s="43">
+        <v>4</v>
+      </c>
+      <c r="I31" s="43">
+        <v>5</v>
+      </c>
+      <c r="J31" s="43">
+        <v>6</v>
+      </c>
+      <c r="K31" s="43">
+        <v>7</v>
+      </c>
+      <c r="L31" s="43">
+        <v>8</v>
+      </c>
+      <c r="M31" s="43">
+        <v>9</v>
+      </c>
+      <c r="N31" s="43">
+        <v>10</v>
+      </c>
+      <c r="O31" s="43">
+        <v>11</v>
+      </c>
+      <c r="P31" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="43">
+        <v>13</v>
+      </c>
+      <c r="R31" s="43">
+        <v>14</v>
+      </c>
+      <c r="S31" s="43">
+        <v>15</v>
+      </c>
+      <c r="T31" s="43">
+        <v>16</v>
+      </c>
+      <c r="U31" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K33" s="44">
+        <v>7</v>
+      </c>
+      <c r="L33" s="44">
+        <v>8</v>
+      </c>
+      <c r="M33" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K34" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K35" s="43">
+        <v>0</v>
+      </c>
+      <c r="L35" s="43">
+        <v>1</v>
+      </c>
+      <c r="M35" s="43">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C12C0-93A7-43A6-ADB4-02616CDFAD6E}">
   <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,16 +2409,16 @@
       <c r="P2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -872,7 +2442,7 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -901,7 +2471,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -910,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -945,7 +2515,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -980,7 +2550,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1014,10 +2584,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -1050,13 +2620,13 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -1087,7 +2657,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -1122,7 +2692,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -1156,10 +2726,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -1191,7 +2761,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1226,7 +2796,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -1260,10 +2830,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -1294,13 +2864,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="J16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="6" t="s">
@@ -1328,16 +2898,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="J17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -1362,19 +2932,19 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11" t="s">
+      <c r="J18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="6" t="s">
@@ -1396,164 +2966,125 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="J19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
+      <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="str">
+      <c r="I22" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="C23" s="15"/>
+      <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="str">
+      <c r="I23" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17" t="str">
+      <c r="C24" s="15"/>
+      <c r="G24" s="17"/>
+      <c r="I24" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="str">
+      <c r="C25" s="15"/>
+      <c r="G25" s="18"/>
+      <c r="I25" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17" t="str">
+      <c r="C26" s="15"/>
+      <c r="G26" s="22"/>
+      <c r="I26" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1561,4 +3092,3795 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7519DEAE-94E8-4B24-B9E5-9932F26C954D}">
+  <dimension ref="A2:O49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="27">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27">
+        <v>3</v>
+      </c>
+      <c r="J4" s="27">
+        <v>4</v>
+      </c>
+      <c r="K4" s="27">
+        <v>5</v>
+      </c>
+      <c r="L4" s="27">
+        <v>6</v>
+      </c>
+      <c r="M4" s="27">
+        <v>7</v>
+      </c>
+      <c r="N4" s="27">
+        <v>8</v>
+      </c>
+      <c r="O4" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1</v>
+      </c>
+      <c r="K6" s="25">
+        <v>2</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A6+1</f>
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"j = "&amp;A9&amp;" -&gt; k = "&amp;A9-1&amp;" -&gt; b(k) ="</f>
+        <v>j = 1 -&gt; k = 0 -&gt; b(k) =</v>
+      </c>
+      <c r="D9">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"j = "&amp;A12&amp;" -&gt; k = "&amp;A12-1&amp;" -&gt; b(k) ="</f>
+        <v>j = 2 -&gt; k = 1 -&gt; b(k) =</v>
+      </c>
+      <c r="D12">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"Prefix P[0..."&amp;A12-1&amp;"]"</f>
+        <v>Prefix P[0...1]</v>
+      </c>
+      <c r="F12" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G12" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>"Prefix P[1..."&amp;A12-1&amp;"]"</f>
+        <v>Prefix P[1...1]</v>
+      </c>
+      <c r="F13" t="str">
+        <f>$G5</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A12+1</f>
+        <v>3</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"j = "&amp;A15&amp;" -&gt; k = "&amp;A15-1&amp;" -&gt; b(k) ="</f>
+        <v>j = 3 -&gt; k = 2 -&gt; b(k) =</v>
+      </c>
+      <c r="D15">
+        <f>H6</f>
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"Prefix P[0..."&amp;A15-1&amp;"]"</f>
+        <v>Prefix P[0...2]</v>
+      </c>
+      <c r="F15" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G15" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H15" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>"Prefix P[1..."&amp;A15-1&amp;"]"</f>
+        <v>Prefix P[1...2]</v>
+      </c>
+      <c r="F16" t="str">
+        <f xml:space="preserve"> $H$5</f>
+        <v>a</v>
+      </c>
+      <c r="G16" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5</f>
+        <v>ba</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A15+1</f>
+        <v>4</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"j = "&amp;A18&amp;" -&gt; k = "&amp;A18-1&amp;" -&gt; b(k) ="</f>
+        <v>j = 4 -&gt; k = 3 -&gt; b(k) =</v>
+      </c>
+      <c r="D18">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"Prefix P[0..."&amp;A18-1&amp;"]"</f>
+        <v>Prefix P[0...3]</v>
+      </c>
+      <c r="F18" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G18" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H18" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I18" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>"Prefix P[1..."&amp;A18-1&amp;"]"</f>
+        <v>Prefix P[1...3]</v>
+      </c>
+      <c r="F19" t="str">
+        <f xml:space="preserve"> $I$5</f>
+        <v>c</v>
+      </c>
+      <c r="G19" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5</f>
+        <v>ac</v>
+      </c>
+      <c r="H19" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5</f>
+        <v>bac</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A18+1</f>
+        <v>5</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"j = "&amp;A21&amp;" -&gt; k = "&amp;A21-1&amp;" -&gt; b(k) = "</f>
+        <v xml:space="preserve">j = 5 -&gt; k = 4 -&gt; b(k) = </v>
+      </c>
+      <c r="D21">
+        <f>J6</f>
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"Prefix P[0..."&amp;A21-1&amp;"]"</f>
+        <v>Prefix P[0...4]</v>
+      </c>
+      <c r="F21" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G21" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H21" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I21" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J21" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>"Prefix P[1..."&amp;A21-1&amp;"]"</f>
+        <v>Prefix P[1...4]</v>
+      </c>
+      <c r="F22" t="str">
+        <f xml:space="preserve"> $J$5</f>
+        <v>a</v>
+      </c>
+      <c r="G22" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5</f>
+        <v>ca</v>
+      </c>
+      <c r="H22" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5</f>
+        <v>aca</v>
+      </c>
+      <c r="I22" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>baca</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A21+1</f>
+        <v>6</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"j = "&amp;A24&amp;" -&gt; k = "&amp;A24-1&amp;" -&gt; b(k) = "</f>
+        <v xml:space="preserve">j = 6 -&gt; k = 5 -&gt; b(k) = </v>
+      </c>
+      <c r="D24">
+        <f>K6</f>
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <f>"Prefix P[0..."&amp;A24-1&amp;"]"</f>
+        <v>Prefix P[0...5]</v>
+      </c>
+      <c r="F24" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G24" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>"Prefix P[1..."&amp;A24-1&amp;"]"</f>
+        <v>Prefix P[1...5]</v>
+      </c>
+      <c r="F25" t="str">
+        <f xml:space="preserve"> $K$5</f>
+        <v>b</v>
+      </c>
+      <c r="G25" t="str">
+        <f xml:space="preserve"> $J$5&amp; $K$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H25" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5</f>
+        <v>aca</v>
+      </c>
+      <c r="I25" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>acab</v>
+      </c>
+      <c r="J25" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>bacab</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A24+1</f>
+        <v>7</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"j = "&amp;A27&amp;" -&gt; k = "&amp;A27-1&amp;" -&gt; b(k) = "</f>
+        <v xml:space="preserve">j = 7 -&gt; k = 6 -&gt; b(k) = </v>
+      </c>
+      <c r="D27">
+        <f>L6</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>"Prefix P[0..."&amp;A27-1&amp;"]"</f>
+        <v>Prefix P[0...6]</v>
+      </c>
+      <c r="F27" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G27" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>"Prefix P[1..."&amp;A27-1&amp;"]"</f>
+        <v>Prefix P[1...6]</v>
+      </c>
+      <c r="F28" t="str">
+        <f xml:space="preserve"> $L$5</f>
+        <v>a</v>
+      </c>
+      <c r="G28" t="str">
+        <f xml:space="preserve"> $K$5&amp; $L$5</f>
+        <v>ba</v>
+      </c>
+      <c r="H28" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5&amp; $K$5</f>
+        <v>cab</v>
+      </c>
+      <c r="I28" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>caba</v>
+      </c>
+      <c r="J28" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>acaba</v>
+      </c>
+      <c r="K28" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>bacaba</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A27+1</f>
+        <v>8</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"j = "&amp;A30&amp;" -&gt; k = "&amp;A30-1&amp;" -&gt; b(k) = "</f>
+        <v xml:space="preserve">j = 8 -&gt; k = 7 -&gt; b(k) = </v>
+      </c>
+      <c r="D30">
+        <f>M6</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f>"Prefix P[0..."&amp;A30-1&amp;"]"</f>
+        <v>Prefix P[0...7]</v>
+      </c>
+      <c r="F30" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G30" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+      <c r="M30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abacabab</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>"Prefix P[1..."&amp;A30-1&amp;"]"</f>
+        <v>Prefix P[1...7]</v>
+      </c>
+      <c r="F31" t="str">
+        <f xml:space="preserve"> $M$5</f>
+        <v>b</v>
+      </c>
+      <c r="G31" t="str">
+        <f xml:space="preserve"> $L$5&amp; $M$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H31" t="str">
+        <f xml:space="preserve"> $J$5&amp; $K$5&amp; $L$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I31" t="str">
+        <f xml:space="preserve"> $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abab</v>
+      </c>
+      <c r="J31" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>cabab</v>
+      </c>
+      <c r="K31" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>acabab</v>
+      </c>
+      <c r="L31" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>bacabab</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A30+1</f>
+        <v>9</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"j = "&amp;A33&amp;" -&gt; k = "&amp;A33-1&amp;" -&gt; b(k) = "</f>
+        <v xml:space="preserve">j = 9 -&gt; k = 8 -&gt; b(k) = </v>
+      </c>
+      <c r="D33">
+        <f>N6</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f>"Prefix P[0..."&amp;A33-1&amp;"]"</f>
+        <v>Prefix P[0...8]</v>
+      </c>
+      <c r="F33" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G33" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+      <c r="M33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abacabab</v>
+      </c>
+      <c r="N33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>abacababc</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>"Prefix P[1..."&amp;A33-1&amp;"]"</f>
+        <v>Prefix P[1...8]</v>
+      </c>
+      <c r="F34" t="str">
+        <f>$N$5</f>
+        <v>c</v>
+      </c>
+      <c r="G34" t="str">
+        <f>$M$5&amp; $N$5</f>
+        <v>bc</v>
+      </c>
+      <c r="H34" t="str">
+        <f>$K$5&amp; $L$5&amp; $M$5</f>
+        <v>bab</v>
+      </c>
+      <c r="I34" t="str">
+        <f>$K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>babc</v>
+      </c>
+      <c r="J34" t="str">
+        <f>$J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>ababc</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>cababc</v>
+      </c>
+      <c r="L34" t="str">
+        <f>$H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>acababc</v>
+      </c>
+      <c r="M34" t="str">
+        <f>$G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>bacababc</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>1</v>
+      </c>
+      <c r="H36" s="27">
+        <v>2</v>
+      </c>
+      <c r="I36" s="27">
+        <v>3</v>
+      </c>
+      <c r="J36" s="27">
+        <v>4</v>
+      </c>
+      <c r="K36" s="27">
+        <v>5</v>
+      </c>
+      <c r="L36" s="27">
+        <v>6</v>
+      </c>
+      <c r="M36" s="27">
+        <v>7</v>
+      </c>
+      <c r="N36" s="27">
+        <v>8</v>
+      </c>
+      <c r="O36" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0</v>
+      </c>
+      <c r="H38" s="29">
+        <v>1</v>
+      </c>
+      <c r="I38" s="29">
+        <v>2</v>
+      </c>
+      <c r="J38" s="29">
+        <v>3</v>
+      </c>
+      <c r="K38" s="29">
+        <v>4</v>
+      </c>
+      <c r="L38" s="29">
+        <v>5</v>
+      </c>
+      <c r="M38" s="29">
+        <v>6</v>
+      </c>
+      <c r="N38" s="29">
+        <v>7</v>
+      </c>
+      <c r="O38" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="29" t="str">
+        <f>$D$6</f>
+        <v>-</v>
+      </c>
+      <c r="G39" s="29">
+        <f>$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="29">
+        <f>$D$12</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="29">
+        <f>$D$15</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="29">
+        <f>$D$18</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <f>$D$21</f>
+        <v>1</v>
+      </c>
+      <c r="L39" s="29">
+        <f>$D$24</f>
+        <v>2</v>
+      </c>
+      <c r="M39" s="29">
+        <f>$D$27</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="29">
+        <f>$D$30</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="29">
+        <f>$D$33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F47" s="32"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F48" s="32"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B8246-B2DC-466D-B4FD-06E0276ACFA1}">
+  <dimension ref="B2:O51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="27">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27">
+        <v>3</v>
+      </c>
+      <c r="J4" s="27">
+        <v>4</v>
+      </c>
+      <c r="K4" s="27">
+        <v>5</v>
+      </c>
+      <c r="L4" s="27">
+        <v>6</v>
+      </c>
+      <c r="M4" s="27">
+        <v>7</v>
+      </c>
+      <c r="N4" s="27">
+        <v>8</v>
+      </c>
+      <c r="O4" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B9+1</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"Prefix P[0..."&amp;B12&amp;"]"</f>
+        <v>Prefix P[0...1]</v>
+      </c>
+      <c r="F12" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G12" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>"Prefix P[1..."&amp;B12-1&amp;"]"</f>
+        <v>Prefix P[1...0]</v>
+      </c>
+      <c r="F13" t="str">
+        <f>$G5</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B12+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"Prefix P[0..."&amp;B15&amp;"]"</f>
+        <v>Prefix P[0...2]</v>
+      </c>
+      <c r="F15" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G15" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H15" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>"Prefix P[1..."&amp;B15-1&amp;"]"</f>
+        <v>Prefix P[1...1]</v>
+      </c>
+      <c r="F16" t="str">
+        <f xml:space="preserve"> $H$5</f>
+        <v>a</v>
+      </c>
+      <c r="G16" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5</f>
+        <v>ba</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B15+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"Prefix P[0..."&amp;B18&amp;"]"</f>
+        <v>Prefix P[0...3]</v>
+      </c>
+      <c r="F18" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G18" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H18" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I18" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>"Prefix P[1..."&amp;B18-1&amp;"]"</f>
+        <v>Prefix P[1...2]</v>
+      </c>
+      <c r="F19" t="str">
+        <f xml:space="preserve"> $I$5</f>
+        <v>c</v>
+      </c>
+      <c r="G19" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5</f>
+        <v>ac</v>
+      </c>
+      <c r="H19" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5</f>
+        <v>bac</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>B18+1</f>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <f>J6</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"Prefix P[0..."&amp;B21&amp;"]"</f>
+        <v>Prefix P[0...4]</v>
+      </c>
+      <c r="F21" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G21" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H21" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I21" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J21" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>"Prefix P[1..."&amp;B21-1&amp;"]"</f>
+        <v>Prefix P[1...3]</v>
+      </c>
+      <c r="F22" t="str">
+        <f xml:space="preserve"> $J$5</f>
+        <v>a</v>
+      </c>
+      <c r="G22" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5</f>
+        <v>ca</v>
+      </c>
+      <c r="H22" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5</f>
+        <v>aca</v>
+      </c>
+      <c r="I22" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>baca</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B21+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>"Prefix P[0..."&amp;B24&amp;"]"</f>
+        <v>Prefix P[0...5]</v>
+      </c>
+      <c r="F24" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G24" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K24" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>"Prefix P[1..."&amp;B24-1&amp;"]"</f>
+        <v>Prefix P[1...4]</v>
+      </c>
+      <c r="F25" t="str">
+        <f xml:space="preserve"> $K$5</f>
+        <v>b</v>
+      </c>
+      <c r="G25" t="str">
+        <f xml:space="preserve"> $J$5&amp; $K$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H25" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5</f>
+        <v>aca</v>
+      </c>
+      <c r="I25" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>acab</v>
+      </c>
+      <c r="J25" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>bacab</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>B24+1</f>
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <f>L6</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>"Prefix P[0..."&amp;B27&amp;"]"</f>
+        <v>Prefix P[0...6]</v>
+      </c>
+      <c r="F27" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G27" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L27" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>"Prefix P[1..."&amp;B27-1&amp;"]"</f>
+        <v>Prefix P[1...5]</v>
+      </c>
+      <c r="F28" t="str">
+        <f xml:space="preserve"> $L$5</f>
+        <v>a</v>
+      </c>
+      <c r="G28" t="str">
+        <f xml:space="preserve"> $K$5&amp; $L$5</f>
+        <v>ba</v>
+      </c>
+      <c r="H28" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5&amp; $K$5</f>
+        <v>cab</v>
+      </c>
+      <c r="I28" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>caba</v>
+      </c>
+      <c r="J28" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>acaba</v>
+      </c>
+      <c r="K28" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>bacaba</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B27+1</f>
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <f>M6</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f>"Prefix P[0..."&amp;B30&amp;"]"</f>
+        <v>Prefix P[0...7]</v>
+      </c>
+      <c r="F30" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G30" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+      <c r="M30" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abacabab</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>"Prefix P[1..."&amp;B30-1&amp;"]"</f>
+        <v>Prefix P[1...6]</v>
+      </c>
+      <c r="F31" t="str">
+        <f xml:space="preserve"> $M$5</f>
+        <v>b</v>
+      </c>
+      <c r="G31" t="str">
+        <f xml:space="preserve"> $L$5&amp; $M$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H31" t="str">
+        <f xml:space="preserve"> $J$5&amp; $K$5&amp; $L$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I31" t="str">
+        <f xml:space="preserve"> $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abab</v>
+      </c>
+      <c r="J31" t="str">
+        <f xml:space="preserve"> $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>cabab</v>
+      </c>
+      <c r="K31" t="str">
+        <f xml:space="preserve"> $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>acabab</v>
+      </c>
+      <c r="L31" t="str">
+        <f xml:space="preserve"> $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>bacabab</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>B30+1</f>
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <f>N6</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f>"Prefix P[0..."&amp;B33&amp;"]"</f>
+        <v>Prefix P[0...8]</v>
+      </c>
+      <c r="F33" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G33" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+      <c r="M33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abacabab</v>
+      </c>
+      <c r="N33" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>abacababc</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>"Prefix P[1..."&amp;B33-1&amp;"]"</f>
+        <v>Prefix P[1...7]</v>
+      </c>
+      <c r="F34" t="str">
+        <f>$N$5</f>
+        <v>c</v>
+      </c>
+      <c r="G34" t="str">
+        <f>$M$5&amp; $N$5</f>
+        <v>bc</v>
+      </c>
+      <c r="H34" t="str">
+        <f>$K$5&amp; $L$5&amp; $M$5</f>
+        <v>bab</v>
+      </c>
+      <c r="I34" t="str">
+        <f>$K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>babc</v>
+      </c>
+      <c r="J34" t="str">
+        <f>$J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>ababc</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>cababc</v>
+      </c>
+      <c r="L34" t="str">
+        <f>$H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>acababc</v>
+      </c>
+      <c r="M34" t="str">
+        <f>$G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>bacababc</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>B33+1</f>
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <f>N9</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f>"Prefix P[0..."&amp;B36&amp;"]"</f>
+        <v>Prefix P[0...9]</v>
+      </c>
+      <c r="F36" t="str">
+        <f>$F$5</f>
+        <v>a</v>
+      </c>
+      <c r="G36" t="str">
+        <f>$F$5&amp; $G$5</f>
+        <v>ab</v>
+      </c>
+      <c r="H36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5</f>
+        <v>aba</v>
+      </c>
+      <c r="I36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5</f>
+        <v>abac</v>
+      </c>
+      <c r="J36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5</f>
+        <v>abaca</v>
+      </c>
+      <c r="K36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5</f>
+        <v>abacab</v>
+      </c>
+      <c r="L36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5</f>
+        <v>abacaba</v>
+      </c>
+      <c r="M36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5</f>
+        <v>abacabab</v>
+      </c>
+      <c r="N36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5</f>
+        <v>abacababc</v>
+      </c>
+      <c r="O36" t="str">
+        <f>$F$5&amp; $G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>abacababca</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f>"Prefix P[1..."&amp;B36-1&amp;"]"</f>
+        <v>Prefix P[1...8]</v>
+      </c>
+      <c r="F37" t="str">
+        <f>$O$5</f>
+        <v>a</v>
+      </c>
+      <c r="G37" t="str">
+        <f>$N$5&amp; $O$5</f>
+        <v>ca</v>
+      </c>
+      <c r="H37" t="str">
+        <f>$M$5&amp; $N$5&amp; $O$5</f>
+        <v>bca</v>
+      </c>
+      <c r="I37" t="str">
+        <f>$L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>abca</v>
+      </c>
+      <c r="J37" t="str">
+        <f>$K$5&amp; $L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>babca</v>
+      </c>
+      <c r="K37" t="str">
+        <f>$J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>ababca</v>
+      </c>
+      <c r="L37" t="str">
+        <f>$I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>cababca</v>
+      </c>
+      <c r="M37" t="str">
+        <f>$H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>acababca</v>
+      </c>
+      <c r="N37" t="str">
+        <f>$G$5&amp; $H$5&amp; $I$5&amp; $J$5&amp; $K$5&amp; $L$5&amp; $M$5&amp; $N$5&amp; $O$5</f>
+        <v>bacababca</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="G39" s="27">
+        <v>1</v>
+      </c>
+      <c r="H39" s="27">
+        <v>2</v>
+      </c>
+      <c r="I39" s="27">
+        <v>3</v>
+      </c>
+      <c r="J39" s="27">
+        <v>4</v>
+      </c>
+      <c r="K39" s="27">
+        <v>5</v>
+      </c>
+      <c r="L39" s="27">
+        <v>6</v>
+      </c>
+      <c r="M39" s="27">
+        <v>7</v>
+      </c>
+      <c r="N39" s="27">
+        <v>8</v>
+      </c>
+      <c r="O39" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="29">
+        <f>$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="29">
+        <f>$D$12</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="29">
+        <f>$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="29">
+        <f>$D$18</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="29">
+        <f>$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="29">
+        <f>$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="29">
+        <f>$D$27</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="29">
+        <f>$D$30</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="29">
+        <f>$D$33</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C304ACDA-8514-4085-B05E-B57D0C233FC4}">
+  <dimension ref="B2:K27"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25">
+        <v>2</v>
+      </c>
+      <c r="I2" s="25">
+        <v>3</v>
+      </c>
+      <c r="J2" s="25">
+        <v>4</v>
+      </c>
+      <c r="K2" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"j = "&amp;B9&amp;" -&gt; k = "&amp;B9-1&amp;" -&gt; b(k) = 0"</f>
+        <v>j = 1 -&gt; k = 0 -&gt; b(k) = 0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"j = "&amp;B12&amp;" -&gt; k = "&amp;B12-1&amp;" -&gt; b(k) = 0"</f>
+        <v>j = 2 -&gt; k = 1 -&gt; b(k) = 0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"Prefix P[0..."&amp;B12-1&amp;"]"</f>
+        <v>Prefix P[0...1]</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>"Prefix P[1..."&amp;B12-1&amp;"]"</f>
+        <v>Prefix P[1...1]</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B12+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"j = "&amp;B15&amp;" -&gt; k = "&amp;B15-1&amp;" -&gt; b(k) = 1"</f>
+        <v>j = 3 -&gt; k = 2 -&gt; b(k) = 1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"Prefix P[0..."&amp;B15-1&amp;"]"</f>
+        <v>Prefix P[0...2]</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>"Prefix P[1..."&amp;B15-1&amp;"]"</f>
+        <v>Prefix P[1...2]</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B15+1</f>
+        <v>4</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"j = "&amp;B18&amp;" -&gt; k = "&amp;B18-1&amp;" -&gt; b(k) = 0"</f>
+        <v>j = 4 -&gt; k = 3 -&gt; b(k) = 0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"Prefix P[0..."&amp;B18-1&amp;"]"</f>
+        <v>Prefix P[0...3]</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>"Prefix P[1..."&amp;B18-1&amp;"]"</f>
+        <v>Prefix P[1...3]</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>B18+1</f>
+        <v>5</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"j = "&amp;B21&amp;" -&gt; k = "&amp;B21-1&amp;" -&gt; b(k) = 1"</f>
+        <v>j = 5 -&gt; k = 4 -&gt; b(k) = 1</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"Prefix P[0..."&amp;B21-1&amp;"]"</f>
+        <v>Prefix P[0...4]</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>"Prefix P[1..."&amp;B21-1&amp;"]"</f>
+        <v>Prefix P[1...4]</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>2</v>
+      </c>
+      <c r="I24" s="25">
+        <v>3</v>
+      </c>
+      <c r="J24" s="25">
+        <v>4</v>
+      </c>
+      <c r="K24" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="25">
+        <v>2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>3</v>
+      </c>
+      <c r="K26" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>1</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7B621-5F6C-4BAE-BC58-C65974731833}">
+  <dimension ref="A3:AC62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="29" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2</v>
+      </c>
+      <c r="F4" s="33">
+        <v>3</v>
+      </c>
+      <c r="G4" s="33">
+        <v>4</v>
+      </c>
+      <c r="H4" s="33">
+        <v>5</v>
+      </c>
+      <c r="I4" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>2</v>
+      </c>
+      <c r="G6" s="33">
+        <v>3</v>
+      </c>
+      <c r="H6" s="33">
+        <v>4</v>
+      </c>
+      <c r="I6" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33">
+        <v>2</v>
+      </c>
+      <c r="I7" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="43">
+        <v>0</v>
+      </c>
+      <c r="M8" s="43">
+        <v>1</v>
+      </c>
+      <c r="N8" s="43">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43">
+        <v>3</v>
+      </c>
+      <c r="P8" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>5</v>
+      </c>
+      <c r="R8" s="43">
+        <v>6</v>
+      </c>
+      <c r="S8" s="43">
+        <v>7</v>
+      </c>
+      <c r="T8" s="43">
+        <v>8</v>
+      </c>
+      <c r="U8" s="43">
+        <v>9</v>
+      </c>
+      <c r="V8" s="43">
+        <v>10</v>
+      </c>
+      <c r="W8" s="43">
+        <v>11</v>
+      </c>
+      <c r="X8" s="43">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="43">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="43">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="43">
+        <v>15</v>
+      </c>
+      <c r="AB8" s="43">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="37">
+        <v>1</v>
+      </c>
+      <c r="M10" s="37">
+        <v>2</v>
+      </c>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="36">
+        <v>3</v>
+      </c>
+      <c r="N12" s="36"/>
+      <c r="R12" s="32"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A11+1</f>
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="36">
+        <v>4</v>
+      </c>
+      <c r="O14" s="36">
+        <v>5</v>
+      </c>
+      <c r="P14" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>7</v>
+      </c>
+      <c r="R14" s="32"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q16" s="36">
+        <v>8</v>
+      </c>
+      <c r="R16" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A14+1</f>
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="R19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A17+1</f>
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="36">
+        <v>11</v>
+      </c>
+      <c r="T20" s="36">
+        <v>12</v>
+      </c>
+      <c r="U20" s="36">
+        <v>13</v>
+      </c>
+      <c r="V20" s="36">
+        <v>14</v>
+      </c>
+      <c r="W20" s="36">
+        <v>15</v>
+      </c>
+      <c r="X20" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y21" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A20+1</f>
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A23+1</f>
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K28" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="46">
+        <v>0</v>
+      </c>
+      <c r="M28" s="46">
+        <v>1</v>
+      </c>
+      <c r="N28" s="46">
+        <v>2</v>
+      </c>
+      <c r="O28" s="46">
+        <v>3</v>
+      </c>
+      <c r="P28" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="46">
+        <v>5</v>
+      </c>
+      <c r="R28" s="46">
+        <v>6</v>
+      </c>
+      <c r="S28" s="46">
+        <v>7</v>
+      </c>
+      <c r="T28" s="46">
+        <v>8</v>
+      </c>
+      <c r="U28" s="46">
+        <v>9</v>
+      </c>
+      <c r="V28" s="46">
+        <v>10</v>
+      </c>
+      <c r="W28" s="46">
+        <v>11</v>
+      </c>
+      <c r="X28" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="46">
+        <v>13</v>
+      </c>
+      <c r="Z28" s="46">
+        <v>14</v>
+      </c>
+      <c r="AA28" s="46">
+        <v>15</v>
+      </c>
+      <c r="AB28" s="46">
+        <v>16</v>
+      </c>
+      <c r="AC28" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K29" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC29" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L30" s="47">
+        <v>1</v>
+      </c>
+      <c r="M30" s="47">
+        <v>2</v>
+      </c>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L31" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L32" s="48">
+        <v>0</v>
+      </c>
+      <c r="M32" s="48">
+        <v>1</v>
+      </c>
+      <c r="N32" s="48">
+        <v>2</v>
+      </c>
+      <c r="O32" s="48">
+        <v>3</v>
+      </c>
+      <c r="P32" s="48">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="48">
+        <v>5</v>
+      </c>
+      <c r="R32" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K34" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="46">
+        <v>0</v>
+      </c>
+      <c r="M34" s="46">
+        <v>1</v>
+      </c>
+      <c r="N34" s="46">
+        <v>2</v>
+      </c>
+      <c r="O34" s="46">
+        <v>3</v>
+      </c>
+      <c r="P34" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>5</v>
+      </c>
+      <c r="R34" s="46">
+        <v>6</v>
+      </c>
+      <c r="S34" s="46">
+        <v>7</v>
+      </c>
+      <c r="T34" s="46">
+        <v>8</v>
+      </c>
+      <c r="U34" s="46">
+        <v>9</v>
+      </c>
+      <c r="V34" s="46">
+        <v>10</v>
+      </c>
+      <c r="W34" s="46">
+        <v>11</v>
+      </c>
+      <c r="X34" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="46">
+        <v>13</v>
+      </c>
+      <c r="Z34" s="46">
+        <v>14</v>
+      </c>
+      <c r="AA34" s="46">
+        <v>15</v>
+      </c>
+      <c r="AB34" s="46">
+        <v>16</v>
+      </c>
+      <c r="AC34" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K35" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X35" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC35" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="M36" s="47">
+        <v>3</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="R36" s="32"/>
+    </row>
+    <row r="37" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="M37" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="M38" s="48">
+        <v>0</v>
+      </c>
+      <c r="N38" s="48">
+        <v>1</v>
+      </c>
+      <c r="O38" s="48">
+        <v>2</v>
+      </c>
+      <c r="P38" s="48">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="48">
+        <v>4</v>
+      </c>
+      <c r="R38" s="48">
+        <v>5</v>
+      </c>
+      <c r="S38" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K40" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="46">
+        <v>0</v>
+      </c>
+      <c r="M40" s="46">
+        <v>1</v>
+      </c>
+      <c r="N40" s="46">
+        <v>2</v>
+      </c>
+      <c r="O40" s="46">
+        <v>3</v>
+      </c>
+      <c r="P40" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="46">
+        <v>5</v>
+      </c>
+      <c r="R40" s="46">
+        <v>6</v>
+      </c>
+      <c r="S40" s="46">
+        <v>7</v>
+      </c>
+      <c r="T40" s="46">
+        <v>8</v>
+      </c>
+      <c r="U40" s="46">
+        <v>9</v>
+      </c>
+      <c r="V40" s="46">
+        <v>10</v>
+      </c>
+      <c r="W40" s="46">
+        <v>11</v>
+      </c>
+      <c r="X40" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y40" s="46">
+        <v>13</v>
+      </c>
+      <c r="Z40" s="46">
+        <v>14</v>
+      </c>
+      <c r="AA40" s="46">
+        <v>15</v>
+      </c>
+      <c r="AB40" s="46">
+        <v>16</v>
+      </c>
+      <c r="AC40" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K41" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC41" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="N42" s="47">
+        <v>4</v>
+      </c>
+      <c r="O42" s="47">
+        <v>5</v>
+      </c>
+      <c r="P42" s="47">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="47">
+        <v>7</v>
+      </c>
+      <c r="R42" s="47"/>
+    </row>
+    <row r="43" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="N43" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="N44" s="48">
+        <v>0</v>
+      </c>
+      <c r="O44" s="48">
+        <v>1</v>
+      </c>
+      <c r="P44" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="48">
+        <v>3</v>
+      </c>
+      <c r="R44" s="48">
+        <v>4</v>
+      </c>
+      <c r="S44" s="48">
+        <v>5</v>
+      </c>
+      <c r="T44" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K46" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="46">
+        <v>2</v>
+      </c>
+      <c r="O46" s="46">
+        <v>3</v>
+      </c>
+      <c r="P46" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="46">
+        <v>5</v>
+      </c>
+      <c r="R46" s="46">
+        <v>6</v>
+      </c>
+      <c r="S46" s="46">
+        <v>7</v>
+      </c>
+      <c r="T46" s="46">
+        <v>8</v>
+      </c>
+      <c r="U46" s="46">
+        <v>9</v>
+      </c>
+      <c r="V46" s="46">
+        <v>10</v>
+      </c>
+      <c r="W46" s="46">
+        <v>11</v>
+      </c>
+      <c r="X46" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y46" s="46">
+        <v>13</v>
+      </c>
+      <c r="Z46" s="46">
+        <v>14</v>
+      </c>
+      <c r="AA46" s="46">
+        <v>15</v>
+      </c>
+      <c r="AB46" s="46">
+        <v>16</v>
+      </c>
+      <c r="AC46" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K47" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC47" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="Q48" s="47">
+        <v>8</v>
+      </c>
+      <c r="R48" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="Q49" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="R49" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="U49" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V49" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="W49" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="Q50" s="48">
+        <v>0</v>
+      </c>
+      <c r="R50" s="48">
+        <v>1</v>
+      </c>
+      <c r="S50" s="48">
+        <v>2</v>
+      </c>
+      <c r="T50" s="48">
+        <v>3</v>
+      </c>
+      <c r="U50" s="48">
+        <v>4</v>
+      </c>
+      <c r="V50" s="48">
+        <v>5</v>
+      </c>
+      <c r="W50" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K52" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="46">
+        <v>0</v>
+      </c>
+      <c r="M52" s="46">
+        <v>1</v>
+      </c>
+      <c r="N52" s="46">
+        <v>2</v>
+      </c>
+      <c r="O52" s="46">
+        <v>3</v>
+      </c>
+      <c r="P52" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="46">
+        <v>5</v>
+      </c>
+      <c r="R52" s="46">
+        <v>6</v>
+      </c>
+      <c r="S52" s="46">
+        <v>7</v>
+      </c>
+      <c r="T52" s="46">
+        <v>8</v>
+      </c>
+      <c r="U52" s="46">
+        <v>9</v>
+      </c>
+      <c r="V52" s="46">
+        <v>10</v>
+      </c>
+      <c r="W52" s="46">
+        <v>11</v>
+      </c>
+      <c r="X52" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="46">
+        <v>13</v>
+      </c>
+      <c r="Z52" s="46">
+        <v>14</v>
+      </c>
+      <c r="AA52" s="46">
+        <v>15</v>
+      </c>
+      <c r="AB52" s="46">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K53" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC53" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="R54" s="47">
+        <v>10</v>
+      </c>
+      <c r="S54" s="47"/>
+    </row>
+    <row r="55" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="R55" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T55" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="U55" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V55" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="W55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="X55" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="R56" s="48">
+        <v>0</v>
+      </c>
+      <c r="S56" s="48">
+        <v>1</v>
+      </c>
+      <c r="T56" s="48">
+        <v>2</v>
+      </c>
+      <c r="U56" s="48">
+        <v>3</v>
+      </c>
+      <c r="V56" s="48">
+        <v>4</v>
+      </c>
+      <c r="W56" s="48">
+        <v>5</v>
+      </c>
+      <c r="X56" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K58" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="46">
+        <v>0</v>
+      </c>
+      <c r="M58" s="46">
+        <v>1</v>
+      </c>
+      <c r="N58" s="46">
+        <v>2</v>
+      </c>
+      <c r="O58" s="46">
+        <v>3</v>
+      </c>
+      <c r="P58" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="46">
+        <v>5</v>
+      </c>
+      <c r="R58" s="46">
+        <v>6</v>
+      </c>
+      <c r="S58" s="46">
+        <v>7</v>
+      </c>
+      <c r="T58" s="46">
+        <v>8</v>
+      </c>
+      <c r="U58" s="46">
+        <v>9</v>
+      </c>
+      <c r="V58" s="46">
+        <v>10</v>
+      </c>
+      <c r="W58" s="46">
+        <v>11</v>
+      </c>
+      <c r="X58" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y58" s="46">
+        <v>13</v>
+      </c>
+      <c r="Z58" s="46">
+        <v>14</v>
+      </c>
+      <c r="AA58" s="46">
+        <v>15</v>
+      </c>
+      <c r="AB58" s="46">
+        <v>16</v>
+      </c>
+      <c r="AC58" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K59" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R59" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T59" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V59" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X59" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z59" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB59" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC59" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="S60" s="47">
+        <v>11</v>
+      </c>
+      <c r="T60" s="47">
+        <v>12</v>
+      </c>
+      <c r="U60" s="47">
+        <v>13</v>
+      </c>
+      <c r="V60" s="47">
+        <v>14</v>
+      </c>
+      <c r="W60" s="47">
+        <v>15</v>
+      </c>
+      <c r="X60" s="47">
+        <v>16</v>
+      </c>
+      <c r="Y60" s="47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="S61" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T61" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U61" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="V61" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="W61" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="X61" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y61" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="S62" s="48">
+        <v>0</v>
+      </c>
+      <c r="T62" s="48">
+        <v>1</v>
+      </c>
+      <c r="U62" s="48">
+        <v>2</v>
+      </c>
+      <c r="V62" s="48">
+        <v>3</v>
+      </c>
+      <c r="W62" s="48">
+        <v>4</v>
+      </c>
+      <c r="X62" s="48">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="48">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Contoh algoritma.xlsx
+++ b/Contoh algoritma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872CCEB3-7378-45E3-A828-64F4BD2351DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA150DA1-9274-474F-BD69-367F20B91537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
   </bookViews>
   <sheets>
     <sheet name="NSM" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="65">
   <si>
     <t>I</t>
   </si>
@@ -255,12 +255,15 @@
   <si>
     <t>T[j]</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,12 +320,6 @@
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -553,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,14 +622,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,22 +636,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1432,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420A0A5-0426-480F-AD14-274674383F47}">
   <dimension ref="B1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,10 +1444,10 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1476,13 +1467,13 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L4" s="43">
-        <v>0</v>
-      </c>
-      <c r="M4" s="43">
-        <v>1</v>
-      </c>
-      <c r="N4" s="43">
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>1</v>
+      </c>
+      <c r="N4" s="41">
         <v>2</v>
       </c>
     </row>
@@ -1496,63 +1487,63 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="43">
-        <v>0</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43">
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41">
         <v>2</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="41">
         <v>3</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="41">
         <v>4</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="41">
         <v>5</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="41">
         <v>6</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="41">
         <v>7</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="41">
         <v>8</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>9</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="41">
         <v>10</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="41">
         <v>11</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="41">
         <v>12</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="41">
         <v>13</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="41">
         <v>14</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="41">
         <v>15</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="41">
         <v>16</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="41">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -1608,12 +1599,12 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D8" s="44">
+      <c r="D8" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -1622,71 +1613,74 @@
       <c r="F9" s="33" t="s">
         <v>59</v>
       </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="43">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1</v>
-      </c>
-      <c r="F10" s="43">
+      <c r="D10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="43">
-        <v>0</v>
-      </c>
-      <c r="E11" s="43">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43">
+      <c r="D11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="41">
         <v>2</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="41">
         <v>3</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="41">
         <v>4</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="41">
         <v>5</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="41">
         <v>6</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="41">
         <v>7</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="41">
         <v>8</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>9</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <v>10</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="41">
         <v>11</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="41">
         <v>12</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="41">
         <v>13</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="41">
         <v>14</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="41">
         <v>15</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="41">
         <v>16</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="41">
         <v>17</v>
       </c>
     </row>
@@ -1694,7 +1688,7 @@
       <c r="D12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="33" t="s">
@@ -1747,14 +1741,14 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="44">
-        <v>1</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="33" t="s">
@@ -1765,69 +1759,69 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="43">
-        <v>0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+      <c r="F15" s="41">
+        <v>1</v>
+      </c>
+      <c r="G15" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="43">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43">
+      <c r="D16" s="41">
+        <v>0</v>
+      </c>
+      <c r="E16" s="41">
+        <v>1</v>
+      </c>
+      <c r="F16" s="41">
         <v>2</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="41">
         <v>3</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="41">
         <v>4</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="41">
         <v>5</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="41">
         <v>6</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="41">
         <v>7</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="41">
         <v>8</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>9</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="41">
         <v>10</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="41">
         <v>11</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="41">
         <v>12</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="41">
         <v>13</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="41">
         <v>14</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="41">
         <v>15</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="41">
         <v>16</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="41">
         <v>17</v>
       </c>
     </row>
@@ -1838,13 +1832,13 @@
       <c r="E17" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="43" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="33" t="s">
@@ -1888,91 +1882,91 @@
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="F18" s="44">
+      <c r="F18" s="42">
         <v>2</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="42">
         <v>3</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
-        <v>1</v>
-      </c>
-      <c r="H20" s="43">
+      <c r="F20" s="41">
+        <v>0</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1</v>
+      </c>
+      <c r="H20" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="43">
-        <v>0</v>
-      </c>
-      <c r="E21" s="43">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43">
+      <c r="D21" s="41">
+        <v>0</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41">
         <v>2</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="41">
         <v>3</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="41">
         <v>4</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="41">
         <v>5</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="41">
         <v>6</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="41">
         <v>7</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="41">
         <v>8</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="41">
         <v>9</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="41">
         <v>10</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="41">
         <v>11</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="41">
         <v>12</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="41">
         <v>13</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="41">
         <v>14</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="41">
         <v>15</v>
       </c>
-      <c r="T21" s="43">
+      <c r="T21" s="41">
         <v>16</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="41">
         <v>17</v>
       </c>
     </row>
@@ -1992,7 +1986,7 @@
       <c r="H22" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="33" t="s">
@@ -2033,14 +2027,14 @@
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="I23" s="44">
+      <c r="I23" s="42">
         <v>5</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="39" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="33" t="s">
@@ -2051,69 +2045,69 @@
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="I25" s="43">
-        <v>0</v>
-      </c>
-      <c r="J25" s="43">
-        <v>1</v>
-      </c>
-      <c r="K25" s="43">
+      <c r="I25" s="41">
+        <v>0</v>
+      </c>
+      <c r="J25" s="41">
+        <v>1</v>
+      </c>
+      <c r="K25" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="43">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
-        <v>1</v>
-      </c>
-      <c r="F26" s="43">
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41">
         <v>2</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="41">
         <v>3</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="41">
         <v>4</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="41">
         <v>5</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="41">
         <v>6</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="41">
         <v>7</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="41">
         <v>8</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="41">
         <v>9</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="41">
         <v>10</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="41">
         <v>11</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="41">
         <v>12</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="41">
         <v>13</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="41">
         <v>14</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="41">
         <v>15</v>
       </c>
-      <c r="T26" s="43">
+      <c r="T26" s="41">
         <v>16</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="41">
         <v>17</v>
       </c>
     </row>
@@ -2136,7 +2130,7 @@
       <c r="I27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="43" t="s">
         <v>58</v>
       </c>
       <c r="K27" s="33" t="s">
@@ -2174,14 +2168,14 @@
       </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="J28" s="44">
+      <c r="J28" s="42">
         <v>6</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="39" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="33" t="s">
@@ -2192,69 +2186,69 @@
       </c>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="43">
-        <v>1</v>
-      </c>
-      <c r="L30" s="43">
+      <c r="J30" s="41">
+        <v>0</v>
+      </c>
+      <c r="K30" s="41">
+        <v>1</v>
+      </c>
+      <c r="L30" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="43">
-        <v>0</v>
-      </c>
-      <c r="E31" s="43">
-        <v>1</v>
-      </c>
-      <c r="F31" s="43">
+      <c r="D31" s="41">
+        <v>0</v>
+      </c>
+      <c r="E31" s="41">
+        <v>1</v>
+      </c>
+      <c r="F31" s="41">
         <v>2</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="41">
         <v>3</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="41">
         <v>4</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="41">
         <v>5</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="41">
         <v>6</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="41">
         <v>7</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="41">
         <v>8</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="41">
         <v>9</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="41">
         <v>10</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="41">
         <v>11</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="41">
         <v>12</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="41">
         <v>13</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="41">
         <v>14</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="41">
         <v>15</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="41">
         <v>16</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="41">
         <v>17</v>
       </c>
     </row>
@@ -2280,13 +2274,13 @@
       <c r="J32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="43" t="s">
         <v>59</v>
       </c>
       <c r="N32" s="33" t="s">
@@ -2315,35 +2309,35 @@
       </c>
     </row>
     <row r="33" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K33" s="44">
+      <c r="K33" s="42">
         <v>7</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="42">
         <v>8</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="42">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="40" t="s">
+      <c r="M34" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="43">
-        <v>0</v>
-      </c>
-      <c r="L35" s="43">
-        <v>1</v>
-      </c>
-      <c r="M35" s="43">
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
+      <c r="L35" s="41">
+        <v>1</v>
+      </c>
+      <c r="M35" s="41">
         <v>2</v>
       </c>
     </row>
@@ -5169,7 +5163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7B621-5F6C-4BAE-BC58-C65974731833}">
   <dimension ref="A3:AC62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
@@ -5213,7 +5207,7 @@
       <c r="H4" s="33">
         <v>5</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="33">
         <v>6</v>
       </c>
     </row>
@@ -5239,12 +5233,12 @@
       <c r="H5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -5291,7 +5285,7 @@
       <c r="H7" s="33">
         <v>2</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="33">
         <v>3</v>
       </c>
     </row>
@@ -5299,58 +5293,58 @@
       <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="43">
-        <v>0</v>
-      </c>
-      <c r="M8" s="43">
-        <v>1</v>
-      </c>
-      <c r="N8" s="43">
+      <c r="L8" s="41">
+        <v>0</v>
+      </c>
+      <c r="M8" s="41">
+        <v>1</v>
+      </c>
+      <c r="N8" s="41">
         <v>2</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="41">
         <v>3</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="41">
         <v>4</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="41">
         <v>5</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="41">
         <v>6</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="41">
         <v>7</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="41">
         <v>8</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="41">
         <v>9</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="41">
         <v>10</v>
       </c>
-      <c r="W8" s="43">
+      <c r="W8" s="41">
         <v>11</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="41">
         <v>12</v>
       </c>
-      <c r="Y8" s="43">
+      <c r="Y8" s="41">
         <v>13</v>
       </c>
-      <c r="Z8" s="43">
+      <c r="Z8" s="41">
         <v>14</v>
       </c>
-      <c r="AA8" s="43">
+      <c r="AA8" s="41">
         <v>15</v>
       </c>
-      <c r="AB8" s="43">
+      <c r="AB8" s="41">
         <v>16</v>
       </c>
-      <c r="AC8" s="43">
+      <c r="AC8" s="41">
         <v>17</v>
       </c>
     </row>
@@ -5361,7 +5355,7 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="25"/>
       <c r="K9" t="s">
         <v>63</v>
       </c>
@@ -5424,17 +5418,17 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="37">
-        <v>1</v>
-      </c>
-      <c r="M10" s="37">
+      <c r="L10" s="36">
+        <v>1</v>
+      </c>
+      <c r="M10" s="36">
         <v>2</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5446,10 +5440,10 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>24</v>
       </c>
       <c r="N11" s="33" t="s">
@@ -5464,7 +5458,7 @@
       <c r="Q11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5475,14 +5469,14 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>3</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="35"/>
       <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="33" t="s">
@@ -5500,7 +5494,7 @@
       <c r="R13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5512,22 +5506,22 @@
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="35">
         <v>4</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="35">
         <v>5</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <v>6</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="35">
         <v>7</v>
       </c>
       <c r="R14" s="32"/>
@@ -5536,22 +5530,22 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="40" t="s">
+      <c r="N15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="41" t="s">
+      <c r="P15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="39" t="s">
         <v>23</v>
       </c>
       <c r="R15" s="33" t="s">
@@ -5560,15 +5554,15 @@
       <c r="S15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <v>8</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <v>9</v>
       </c>
     </row>
@@ -5589,10 +5583,10 @@
       <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="41" t="s">
+      <c r="Q17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="39" t="s">
         <v>24</v>
       </c>
       <c r="S17" s="33" t="s">
@@ -5607,7 +5601,7 @@
       <c r="V17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="W17" s="38" t="s">
+      <c r="W17" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5624,12 +5618,12 @@
       <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="39" t="s">
         <v>22</v>
       </c>
       <c r="S19" s="33" t="s">
@@ -5647,7 +5641,7 @@
       <c r="W19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="X19" s="38" t="s">
+      <c r="X19" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5659,7 +5653,7 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
@@ -5671,22 +5665,22 @@
       <c r="F20" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="35">
         <v>11</v>
       </c>
-      <c r="T20" s="36">
+      <c r="T20" s="35">
         <v>12</v>
       </c>
-      <c r="U20" s="36">
+      <c r="U20" s="35">
         <v>13</v>
       </c>
-      <c r="V20" s="36">
+      <c r="V20" s="35">
         <v>14</v>
       </c>
-      <c r="W20" s="36">
+      <c r="W20" s="35">
         <v>15</v>
       </c>
-      <c r="X20" s="36">
+      <c r="X20" s="35">
         <v>16</v>
       </c>
     </row>
@@ -5694,7 +5688,7 @@
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
@@ -5706,25 +5700,25 @@
       <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="T21" s="40" t="s">
+      <c r="S21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="40" t="s">
+      <c r="U21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="W21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="X21" s="40" t="s">
+      <c r="W21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Y21" s="40" t="s">
+      <c r="Y21" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5739,7 +5733,7 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
@@ -5759,7 +5753,7 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
@@ -5786,7 +5780,7 @@
       <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="40" t="s">
         <v>40</v>
       </c>
       <c r="F26" t="s">
@@ -5809,7 +5803,7 @@
       <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="40" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="s">
@@ -5826,58 +5820,58 @@
       <c r="K28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="46">
-        <v>0</v>
-      </c>
-      <c r="M28" s="46">
-        <v>1</v>
-      </c>
-      <c r="N28" s="46">
+      <c r="L28" s="44">
+        <v>0</v>
+      </c>
+      <c r="M28" s="44">
+        <v>1</v>
+      </c>
+      <c r="N28" s="44">
         <v>2</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="44">
         <v>3</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="44">
         <v>4</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="44">
         <v>5</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="44">
         <v>6</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="44">
         <v>7</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="44">
         <v>8</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="44">
         <v>9</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="44">
         <v>10</v>
       </c>
-      <c r="W28" s="46">
+      <c r="W28" s="44">
         <v>11</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28" s="44">
         <v>12</v>
       </c>
-      <c r="Y28" s="46">
+      <c r="Y28" s="44">
         <v>13</v>
       </c>
-      <c r="Z28" s="46">
+      <c r="Z28" s="44">
         <v>14</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AA28" s="44">
         <v>15</v>
       </c>
-      <c r="AB28" s="46">
+      <c r="AB28" s="44">
         <v>16</v>
       </c>
-      <c r="AC28" s="46">
+      <c r="AC28" s="44">
         <v>17</v>
       </c>
     </row>
@@ -5941,23 +5935,23 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L30" s="47">
-        <v>1</v>
-      </c>
-      <c r="M30" s="47">
+      <c r="L30" s="45">
+        <v>1</v>
+      </c>
+      <c r="M30" s="45">
         <v>2</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L31" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="41" t="s">
+      <c r="L31" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="39" t="s">
         <v>24</v>
       </c>
       <c r="N31" s="33" t="s">
@@ -5972,30 +5966,30 @@
       <c r="Q31" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R31" s="38" t="s">
+      <c r="R31" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L32" s="48">
-        <v>0</v>
-      </c>
-      <c r="M32" s="48">
-        <v>1</v>
-      </c>
-      <c r="N32" s="48">
+      <c r="L32" s="46">
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <v>1</v>
+      </c>
+      <c r="N32" s="46">
         <v>2</v>
       </c>
-      <c r="O32" s="48">
+      <c r="O32" s="46">
         <v>3</v>
       </c>
-      <c r="P32" s="48">
+      <c r="P32" s="46">
         <v>4</v>
       </c>
-      <c r="Q32" s="48">
+      <c r="Q32" s="46">
         <v>5</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="46">
         <v>6</v>
       </c>
     </row>
@@ -6003,58 +5997,58 @@
       <c r="K34" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="46">
-        <v>0</v>
-      </c>
-      <c r="M34" s="46">
-        <v>1</v>
-      </c>
-      <c r="N34" s="46">
+      <c r="L34" s="44">
+        <v>0</v>
+      </c>
+      <c r="M34" s="44">
+        <v>1</v>
+      </c>
+      <c r="N34" s="44">
         <v>2</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="44">
         <v>3</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="44">
         <v>4</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="44">
         <v>5</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="44">
         <v>6</v>
       </c>
-      <c r="S34" s="46">
+      <c r="S34" s="44">
         <v>7</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="44">
         <v>8</v>
       </c>
-      <c r="U34" s="46">
+      <c r="U34" s="44">
         <v>9</v>
       </c>
-      <c r="V34" s="46">
+      <c r="V34" s="44">
         <v>10</v>
       </c>
-      <c r="W34" s="46">
+      <c r="W34" s="44">
         <v>11</v>
       </c>
-      <c r="X34" s="46">
+      <c r="X34" s="44">
         <v>12</v>
       </c>
-      <c r="Y34" s="46">
+      <c r="Y34" s="44">
         <v>13</v>
       </c>
-      <c r="Z34" s="46">
+      <c r="Z34" s="44">
         <v>14</v>
       </c>
-      <c r="AA34" s="46">
+      <c r="AA34" s="44">
         <v>15</v>
       </c>
-      <c r="AB34" s="46">
+      <c r="AB34" s="44">
         <v>16</v>
       </c>
-      <c r="AC34" s="46">
+      <c r="AC34" s="44">
         <v>17</v>
       </c>
     </row>
@@ -6118,14 +6112,14 @@
       </c>
     </row>
     <row r="36" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="M36" s="47">
+      <c r="M36" s="45">
         <v>3</v>
       </c>
-      <c r="N36" s="36"/>
+      <c r="N36" s="35"/>
       <c r="R36" s="32"/>
     </row>
     <row r="37" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="M37" s="41" t="s">
+      <c r="M37" s="39" t="s">
         <v>22</v>
       </c>
       <c r="N37" s="33" t="s">
@@ -6143,30 +6137,30 @@
       <c r="R37" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="S37" s="38" t="s">
+      <c r="S37" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="M38" s="48">
-        <v>0</v>
-      </c>
-      <c r="N38" s="48">
-        <v>1</v>
-      </c>
-      <c r="O38" s="48">
+      <c r="M38" s="46">
+        <v>0</v>
+      </c>
+      <c r="N38" s="46">
+        <v>1</v>
+      </c>
+      <c r="O38" s="46">
         <v>2</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="46">
         <v>3</v>
       </c>
-      <c r="Q38" s="48">
+      <c r="Q38" s="46">
         <v>4</v>
       </c>
-      <c r="R38" s="48">
+      <c r="R38" s="46">
         <v>5</v>
       </c>
-      <c r="S38" s="48">
+      <c r="S38" s="46">
         <v>6</v>
       </c>
     </row>
@@ -6174,58 +6168,58 @@
       <c r="K40" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="46">
-        <v>0</v>
-      </c>
-      <c r="M40" s="46">
-        <v>1</v>
-      </c>
-      <c r="N40" s="46">
+      <c r="L40" s="44">
+        <v>0</v>
+      </c>
+      <c r="M40" s="44">
+        <v>1</v>
+      </c>
+      <c r="N40" s="44">
         <v>2</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="44">
         <v>3</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="44">
         <v>4</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="44">
         <v>5</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="44">
         <v>6</v>
       </c>
-      <c r="S40" s="46">
+      <c r="S40" s="44">
         <v>7</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="44">
         <v>8</v>
       </c>
-      <c r="U40" s="46">
+      <c r="U40" s="44">
         <v>9</v>
       </c>
-      <c r="V40" s="46">
+      <c r="V40" s="44">
         <v>10</v>
       </c>
-      <c r="W40" s="46">
+      <c r="W40" s="44">
         <v>11</v>
       </c>
-      <c r="X40" s="46">
+      <c r="X40" s="44">
         <v>12</v>
       </c>
-      <c r="Y40" s="46">
+      <c r="Y40" s="44">
         <v>13</v>
       </c>
-      <c r="Z40" s="46">
+      <c r="Z40" s="44">
         <v>14</v>
       </c>
-      <c r="AA40" s="46">
+      <c r="AA40" s="44">
         <v>15</v>
       </c>
-      <c r="AB40" s="46">
+      <c r="AB40" s="44">
         <v>16</v>
       </c>
-      <c r="AC40" s="46">
+      <c r="AC40" s="44">
         <v>17</v>
       </c>
     </row>
@@ -6289,31 +6283,31 @@
       </c>
     </row>
     <row r="42" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="N42" s="47">
+      <c r="N42" s="45">
         <v>4</v>
       </c>
-      <c r="O42" s="47">
+      <c r="O42" s="45">
         <v>5</v>
       </c>
-      <c r="P42" s="47">
+      <c r="P42" s="45">
         <v>6</v>
       </c>
-      <c r="Q42" s="47">
+      <c r="Q42" s="45">
         <v>7</v>
       </c>
-      <c r="R42" s="47"/>
+      <c r="R42" s="45"/>
     </row>
     <row r="43" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="N43" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" s="40" t="s">
+      <c r="N43" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P43" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q43" s="41" t="s">
+      <c r="P43" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="39" t="s">
         <v>23</v>
       </c>
       <c r="R43" s="33" t="s">
@@ -6322,30 +6316,30 @@
       <c r="S43" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T43" s="38" t="s">
+      <c r="T43" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="N44" s="48">
-        <v>0</v>
-      </c>
-      <c r="O44" s="48">
-        <v>1</v>
-      </c>
-      <c r="P44" s="48">
+      <c r="N44" s="46">
+        <v>0</v>
+      </c>
+      <c r="O44" s="46">
+        <v>1</v>
+      </c>
+      <c r="P44" s="46">
         <v>2</v>
       </c>
-      <c r="Q44" s="48">
+      <c r="Q44" s="46">
         <v>3</v>
       </c>
-      <c r="R44" s="48">
+      <c r="R44" s="46">
         <v>4</v>
       </c>
-      <c r="S44" s="48">
+      <c r="S44" s="46">
         <v>5</v>
       </c>
-      <c r="T44" s="48">
+      <c r="T44" s="46">
         <v>6</v>
       </c>
     </row>
@@ -6353,58 +6347,58 @@
       <c r="K46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="46">
-        <v>0</v>
-      </c>
-      <c r="M46" s="46">
-        <v>1</v>
-      </c>
-      <c r="N46" s="46">
+      <c r="L46" s="44">
+        <v>0</v>
+      </c>
+      <c r="M46" s="44">
+        <v>1</v>
+      </c>
+      <c r="N46" s="44">
         <v>2</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="44">
         <v>3</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="44">
         <v>4</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="44">
         <v>5</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="44">
         <v>6</v>
       </c>
-      <c r="S46" s="46">
+      <c r="S46" s="44">
         <v>7</v>
       </c>
-      <c r="T46" s="46">
+      <c r="T46" s="44">
         <v>8</v>
       </c>
-      <c r="U46" s="46">
+      <c r="U46" s="44">
         <v>9</v>
       </c>
-      <c r="V46" s="46">
+      <c r="V46" s="44">
         <v>10</v>
       </c>
-      <c r="W46" s="46">
+      <c r="W46" s="44">
         <v>11</v>
       </c>
-      <c r="X46" s="46">
+      <c r="X46" s="44">
         <v>12</v>
       </c>
-      <c r="Y46" s="46">
+      <c r="Y46" s="44">
         <v>13</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="Z46" s="44">
         <v>14</v>
       </c>
-      <c r="AA46" s="46">
+      <c r="AA46" s="44">
         <v>15</v>
       </c>
-      <c r="AB46" s="46">
+      <c r="AB46" s="44">
         <v>16</v>
       </c>
-      <c r="AC46" s="46">
+      <c r="AC46" s="44">
         <v>17</v>
       </c>
     </row>
@@ -6468,18 +6462,18 @@
       </c>
     </row>
     <row r="48" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="Q48" s="47">
+      <c r="Q48" s="45">
         <v>8</v>
       </c>
-      <c r="R48" s="47">
+      <c r="R48" s="45">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="Q49" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="41" t="s">
+      <c r="Q49" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R49" s="39" t="s">
         <v>24</v>
       </c>
       <c r="S49" s="33" t="s">
@@ -6494,30 +6488,30 @@
       <c r="V49" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="W49" s="38" t="s">
+      <c r="W49" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="Q50" s="48">
-        <v>0</v>
-      </c>
-      <c r="R50" s="48">
-        <v>1</v>
-      </c>
-      <c r="S50" s="48">
+      <c r="Q50" s="46">
+        <v>0</v>
+      </c>
+      <c r="R50" s="46">
+        <v>1</v>
+      </c>
+      <c r="S50" s="46">
         <v>2</v>
       </c>
-      <c r="T50" s="48">
+      <c r="T50" s="46">
         <v>3</v>
       </c>
-      <c r="U50" s="48">
+      <c r="U50" s="46">
         <v>4</v>
       </c>
-      <c r="V50" s="48">
+      <c r="V50" s="46">
         <v>5</v>
       </c>
-      <c r="W50" s="48">
+      <c r="W50" s="46">
         <v>6</v>
       </c>
     </row>
@@ -6525,58 +6519,58 @@
       <c r="K52" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L52" s="46">
-        <v>0</v>
-      </c>
-      <c r="M52" s="46">
-        <v>1</v>
-      </c>
-      <c r="N52" s="46">
+      <c r="L52" s="44">
+        <v>0</v>
+      </c>
+      <c r="M52" s="44">
+        <v>1</v>
+      </c>
+      <c r="N52" s="44">
         <v>2</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="44">
         <v>3</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="44">
         <v>4</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="44">
         <v>5</v>
       </c>
-      <c r="R52" s="46">
+      <c r="R52" s="44">
         <v>6</v>
       </c>
-      <c r="S52" s="46">
+      <c r="S52" s="44">
         <v>7</v>
       </c>
-      <c r="T52" s="46">
+      <c r="T52" s="44">
         <v>8</v>
       </c>
-      <c r="U52" s="46">
+      <c r="U52" s="44">
         <v>9</v>
       </c>
-      <c r="V52" s="46">
+      <c r="V52" s="44">
         <v>10</v>
       </c>
-      <c r="W52" s="46">
+      <c r="W52" s="44">
         <v>11</v>
       </c>
-      <c r="X52" s="46">
+      <c r="X52" s="44">
         <v>12</v>
       </c>
-      <c r="Y52" s="46">
+      <c r="Y52" s="44">
         <v>13</v>
       </c>
-      <c r="Z52" s="46">
+      <c r="Z52" s="44">
         <v>14</v>
       </c>
-      <c r="AA52" s="46">
+      <c r="AA52" s="44">
         <v>15</v>
       </c>
-      <c r="AB52" s="46">
+      <c r="AB52" s="44">
         <v>16</v>
       </c>
-      <c r="AC52" s="46">
+      <c r="AC52" s="44">
         <v>17</v>
       </c>
     </row>
@@ -6640,13 +6634,13 @@
       </c>
     </row>
     <row r="54" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="R54" s="47">
+      <c r="R54" s="45">
         <v>10</v>
       </c>
-      <c r="S54" s="47"/>
+      <c r="S54" s="45"/>
     </row>
     <row r="55" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="R55" s="41" t="s">
+      <c r="R55" s="39" t="s">
         <v>22</v>
       </c>
       <c r="S55" s="33" t="s">
@@ -6664,30 +6658,30 @@
       <c r="W55" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="X55" s="38" t="s">
+      <c r="X55" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="R56" s="48">
-        <v>0</v>
-      </c>
-      <c r="S56" s="48">
-        <v>1</v>
-      </c>
-      <c r="T56" s="48">
+      <c r="R56" s="46">
+        <v>0</v>
+      </c>
+      <c r="S56" s="46">
+        <v>1</v>
+      </c>
+      <c r="T56" s="46">
         <v>2</v>
       </c>
-      <c r="U56" s="48">
+      <c r="U56" s="46">
         <v>3</v>
       </c>
-      <c r="V56" s="48">
+      <c r="V56" s="46">
         <v>4</v>
       </c>
-      <c r="W56" s="48">
+      <c r="W56" s="46">
         <v>5</v>
       </c>
-      <c r="X56" s="48">
+      <c r="X56" s="46">
         <v>6</v>
       </c>
     </row>
@@ -6695,58 +6689,58 @@
       <c r="K58" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L58" s="46">
-        <v>0</v>
-      </c>
-      <c r="M58" s="46">
-        <v>1</v>
-      </c>
-      <c r="N58" s="46">
+      <c r="L58" s="44">
+        <v>0</v>
+      </c>
+      <c r="M58" s="44">
+        <v>1</v>
+      </c>
+      <c r="N58" s="44">
         <v>2</v>
       </c>
-      <c r="O58" s="46">
+      <c r="O58" s="44">
         <v>3</v>
       </c>
-      <c r="P58" s="46">
+      <c r="P58" s="44">
         <v>4</v>
       </c>
-      <c r="Q58" s="46">
+      <c r="Q58" s="44">
         <v>5</v>
       </c>
-      <c r="R58" s="46">
+      <c r="R58" s="44">
         <v>6</v>
       </c>
-      <c r="S58" s="46">
+      <c r="S58" s="44">
         <v>7</v>
       </c>
-      <c r="T58" s="46">
+      <c r="T58" s="44">
         <v>8</v>
       </c>
-      <c r="U58" s="46">
+      <c r="U58" s="44">
         <v>9</v>
       </c>
-      <c r="V58" s="46">
+      <c r="V58" s="44">
         <v>10</v>
       </c>
-      <c r="W58" s="46">
+      <c r="W58" s="44">
         <v>11</v>
       </c>
-      <c r="X58" s="46">
+      <c r="X58" s="44">
         <v>12</v>
       </c>
-      <c r="Y58" s="46">
+      <c r="Y58" s="44">
         <v>13</v>
       </c>
-      <c r="Z58" s="46">
+      <c r="Z58" s="44">
         <v>14</v>
       </c>
-      <c r="AA58" s="46">
+      <c r="AA58" s="44">
         <v>15</v>
       </c>
-      <c r="AB58" s="46">
+      <c r="AB58" s="44">
         <v>16</v>
       </c>
-      <c r="AC58" s="46">
+      <c r="AC58" s="44">
         <v>17</v>
       </c>
     </row>
@@ -6810,71 +6804,71 @@
       </c>
     </row>
     <row r="60" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="S60" s="47">
+      <c r="S60" s="45">
         <v>11</v>
       </c>
-      <c r="T60" s="47">
+      <c r="T60" s="45">
         <v>12</v>
       </c>
-      <c r="U60" s="47">
+      <c r="U60" s="45">
         <v>13</v>
       </c>
-      <c r="V60" s="47">
+      <c r="V60" s="45">
         <v>14</v>
       </c>
-      <c r="W60" s="47">
+      <c r="W60" s="45">
         <v>15</v>
       </c>
-      <c r="X60" s="47">
+      <c r="X60" s="45">
         <v>16</v>
       </c>
-      <c r="Y60" s="47">
+      <c r="Y60" s="45">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="S61" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="T61" s="40" t="s">
+      <c r="S61" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="T61" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U61" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="V61" s="40" t="s">
+      <c r="U61" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="V61" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="W61" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="X61" s="40" t="s">
+      <c r="W61" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="X61" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Y61" s="40" t="s">
+      <c r="Y61" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="S62" s="48">
-        <v>0</v>
-      </c>
-      <c r="T62" s="48">
-        <v>1</v>
-      </c>
-      <c r="U62" s="48">
+      <c r="S62" s="46">
+        <v>0</v>
+      </c>
+      <c r="T62" s="46">
+        <v>1</v>
+      </c>
+      <c r="U62" s="46">
         <v>2</v>
       </c>
-      <c r="V62" s="48">
+      <c r="V62" s="46">
         <v>3</v>
       </c>
-      <c r="W62" s="48">
+      <c r="W62" s="46">
         <v>4</v>
       </c>
-      <c r="X62" s="48">
+      <c r="X62" s="46">
         <v>5</v>
       </c>
-      <c r="Y62" s="48">
+      <c r="Y62" s="46">
         <v>6</v>
       </c>
     </row>
